--- a/Docs/PARTICIPACION.xlsx
+++ b/Docs/PARTICIPACION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\IGH\IGH-JAVA-ORACLE-2021\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F72888-3AE8-411F-8C87-F8930316D47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E81CA4-6CE8-4976-8455-395C2646F794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9696807-126C-4F1E-AA22-B657961562D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>USUARIO</t>
   </si>
@@ -122,6 +122,38 @@
   <si>
     <t>Ejercicio de notas, se realizo correcciones.
 Ejercicio 04: Falta corregir</t>
+  </si>
+  <si>
+    <t>Proyecto 4: Descomponer un importe en soles.</t>
+  </si>
+  <si>
+    <t>Proyecto 5: Bonificación del hijo.
+Muy buen solución.
+Ejemplo 4 de arreglos. Correcto.
+Lab 4 - Prob 4</t>
+  </si>
+  <si>
+    <t>Proyecto 1: Sumatoria de N primeros números.
+Correcto
+Segunda participación. Ejemplo 1 de arreglos
+Ejemplo 6 de Arreglos. Correcto.
+Lab 4 - Prob 5: Correcto</t>
+  </si>
+  <si>
+    <t>Proyecto 5: Bonificación del hijo.
+Ejemplo 5 de arreglos. Correcto
+Lab 4 - Prob 1. Correcto</t>
+  </si>
+  <si>
+    <t>Proyecto 3: Tabla de multiplicar de un numero N.
+Correcto.
+Ejemplo 2 de arreglos. Conforme.
+Lab 4 - Prob 3: Ok</t>
+  </si>
+  <si>
+    <t>Proyecto 2: De base 10 a base 16
+Ejemplo 3 de arreglos: Conforme.
+Lab 4 - Prob 2: Correcto</t>
   </si>
 </sst>
 </file>
@@ -274,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,80 +323,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -683,16 +718,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038504C2-2544-410C-B365-C251CB6D8DA8}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" style="5" customWidth="1"/>
-    <col min="4" max="17" width="8.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="5" customWidth="1"/>
+    <col min="5" max="17" width="8.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,473 +785,485 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="D5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="D8" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="D11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="D14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
         <v>6</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="24" t="s">
+      <c r="D17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
         <v>7</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="14" t="s">
+      <c r="D20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1311,7 +1359,14 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q21">
     <sortCondition ref="B2:B21"/>
   </sortState>
-  <mergeCells count="14">
+  <mergeCells count="21">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
